--- a/ComplexNetwork1/src/result/US.xlsx
+++ b/ComplexNetwork1/src/result/US.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="betweenness" sheetId="4" r:id="rId4"/>
     <sheet name="density" sheetId="6" r:id="rId5"/>
     <sheet name="clustering_coefficent" sheetId="7" r:id="rId6"/>
+    <sheet name="pageRank" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1251">
   <si>
     <t>total vertices is: 414</t>
   </si>
@@ -2535,6 +2536,1248 @@
   </si>
   <si>
     <t>USATY: 0.0</t>
+  </si>
+  <si>
+    <t>USHOU: 0.805404386801942</t>
+  </si>
+  <si>
+    <t>USSEA: 1.5255860506098238</t>
+  </si>
+  <si>
+    <t>USUIN: 0.11738930483426727</t>
+  </si>
+  <si>
+    <t>USCEZ: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USCEC: 0.15853707150583618</t>
+  </si>
+  <si>
+    <t>USJST: 0.17645766961251091</t>
+  </si>
+  <si>
+    <t>USHOT: 0.15775293124181547</t>
+  </si>
+  <si>
+    <t>USMYR: 0.4857482570969326</t>
+  </si>
+  <si>
+    <t>USHON: 0.1713230512043312</t>
+  </si>
+  <si>
+    <t>USFKL: 0.1765212182602861</t>
+  </si>
+  <si>
+    <t>USSDY: 0.14493277501959298</t>
+  </si>
+  <si>
+    <t>USLWS: 0.2023366094964385</t>
+  </si>
+  <si>
+    <t>USRDD: 0.11539378002343512</t>
+  </si>
+  <si>
+    <t>USVLD: 0.11656582132447248</t>
+  </si>
+  <si>
+    <t>USGNV: 0.16724064448168618</t>
+  </si>
+  <si>
+    <t>USSFB: 1.346402293446675</t>
+  </si>
+  <si>
+    <t>USABQ: 0.574332299269743</t>
+  </si>
+  <si>
+    <t>USABR: 0.1164176909554713</t>
+  </si>
+  <si>
+    <t>USLYH: 0.1143858163966263</t>
+  </si>
+  <si>
+    <t>USRDM: 0.19905869727458156</t>
+  </si>
+  <si>
+    <t>USSFO: 1.5173868880243182</t>
+  </si>
+  <si>
+    <t>USABY: 0.11656582132447248</t>
+  </si>
+  <si>
+    <t>USIRK: 0.11738930483426727</t>
+  </si>
+  <si>
+    <t>USABE: 0.24677029033276904</t>
+  </si>
+  <si>
+    <t>USFLG: 0.1133524440889117</t>
+  </si>
+  <si>
+    <t>USBDL: 0.41865604169489923</t>
+  </si>
+  <si>
+    <t>USDHN: 0.11656582132447248</t>
+  </si>
+  <si>
+    <t>USFLL: 1.0089676352124324</t>
+  </si>
+  <si>
+    <t>USHPN: 0.4686308511086702</t>
+  </si>
+  <si>
+    <t>USABI: 0.117853811790011</t>
+  </si>
+  <si>
+    <t>USFLO: 0.1143858163966263</t>
+  </si>
+  <si>
+    <t>USTEB: 0.14276033147695744</t>
+  </si>
+  <si>
+    <t>USSCK: 0.11399500582681939</t>
+  </si>
+  <si>
+    <t>USDEC: 0.13410942266817683</t>
+  </si>
+  <si>
+    <t>USLUK: 0.1804978115871278</t>
+  </si>
+  <si>
+    <t>USEGE: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USSBN: 0.23322234512990764</t>
+  </si>
+  <si>
+    <t>USSBP: 0.14400211054606324</t>
+  </si>
+  <si>
+    <t>USSBY: 0.1277690236223042</t>
+  </si>
+  <si>
+    <t>USDEN: 4.121449051784759</t>
+  </si>
+  <si>
+    <t>USDFW: 3.4687398990062213</t>
+  </si>
+  <si>
+    <t>USSDF: 0.41875688026239066</t>
+  </si>
+  <si>
+    <t>USCDR: 0.18466895733593808</t>
+  </si>
+  <si>
+    <t>USHOB: 0.1142316550388261</t>
+  </si>
+  <si>
+    <t>USLWB: 0.13126330885738421</t>
+  </si>
+  <si>
+    <t>USCDC: 0.11799584890798055</t>
+  </si>
+  <si>
+    <t>USGLH: 0.1864874677850239</t>
+  </si>
+  <si>
+    <t>USIPL: 0.13049625303724682</t>
+  </si>
+  <si>
+    <t>USHND: 0.1608364792064023</t>
+  </si>
+  <si>
+    <t>USVIS: 0.11525588643371643</t>
+  </si>
+  <si>
+    <t>USRAP: 0.2030172936073985</t>
+  </si>
+  <si>
+    <t>USXNA: 0.3139341663869258</t>
+  </si>
+  <si>
+    <t>USIPT: 0.1133832072256779</t>
+  </si>
+  <si>
+    <t>USHNL: 0.4623096599165911</t>
+  </si>
+  <si>
+    <t>USIMT: 0.17910414263138835</t>
+  </si>
+  <si>
+    <t>USSAF: 0.15314451651693417</t>
+  </si>
+  <si>
+    <t>USDCA: 1.4213044718554322</t>
+  </si>
+  <si>
+    <t>USLSE: 0.13313780878938083</t>
+  </si>
+  <si>
+    <t>USTBN: 0.11738930483426727</t>
+  </si>
+  <si>
+    <t>USCAK: 0.25857075854681943</t>
+  </si>
+  <si>
+    <t>USCAE: 0.24508650174642643</t>
+  </si>
+  <si>
+    <t>USSBA: 0.1944152924555127</t>
+  </si>
+  <si>
+    <t>USYNG: 0.1717648397514814</t>
+  </si>
+  <si>
+    <t>USMVY: 0.2275040779311782</t>
+  </si>
+  <si>
+    <t>USGJT: 0.19746358394575544</t>
+  </si>
+  <si>
+    <t>USMWA: 0.11738930483426727</t>
+  </si>
+  <si>
+    <t>USDDC: 0.18466895873265377</t>
+  </si>
+  <si>
+    <t>USIND: 0.5502263557501803</t>
+  </si>
+  <si>
+    <t>USSAN: 0.8487900741491927</t>
+  </si>
+  <si>
+    <t>USHLN: 0.19456051509944536</t>
+  </si>
+  <si>
+    <t>USSAT: 0.5400629930332624</t>
+  </si>
+  <si>
+    <t>USINL: 0.1791041408764572</t>
+  </si>
+  <si>
+    <t>USSAV: 0.2852745248720632</t>
+  </si>
+  <si>
+    <t>USECP: 0.16950494344455755</t>
+  </si>
+  <si>
+    <t>USMSY: 0.6355101919046573</t>
+  </si>
+  <si>
+    <t>USDAL: 0.4944352592147242</t>
+  </si>
+  <si>
+    <t>USYKM: 0.11547695993372285</t>
+  </si>
+  <si>
+    <t>USDAY: 0.32763544127655586</t>
+  </si>
+  <si>
+    <t>USVEL: 0.11799584890798055</t>
+  </si>
+  <si>
+    <t>USGGW: 0.14493277501959298</t>
+  </si>
+  <si>
+    <t>USDAB: 0.13095163772109877</t>
+  </si>
+  <si>
+    <t>USHIB: 0.1164176909554713</t>
+  </si>
+  <si>
+    <t>USMSP: 2.720645929763815</t>
+  </si>
+  <si>
+    <t>USMSS: 0.11838937379370848</t>
+  </si>
+  <si>
+    <t>USMSL: 0.11656582132447248</t>
+  </si>
+  <si>
+    <t>USGGG: 0.1178538083037085</t>
+  </si>
+  <si>
+    <t>USMSN: 0.2662707966646969</t>
+  </si>
+  <si>
+    <t>USMSO: 0.19882172759972067</t>
+  </si>
+  <si>
+    <t>USDBQ: 0.11672011783390955</t>
+  </si>
+  <si>
+    <t>USMTJ: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USILG: 0.18189959011258883</t>
+  </si>
+  <si>
+    <t>USLRD: 0.14608046916935397</t>
+  </si>
+  <si>
+    <t>USILM: 0.16763295912865783</t>
+  </si>
+  <si>
+    <t>USMAF: 0.21373459114137794</t>
+  </si>
+  <si>
+    <t>USBKW: 0.17645767087115677</t>
+  </si>
+  <si>
+    <t>USCMX: 0.11672011783390955</t>
+  </si>
+  <si>
+    <t>USTOL: 0.17229335599817364</t>
+  </si>
+  <si>
+    <t>USRKS: 0.1800400057035763</t>
+  </si>
+  <si>
+    <t>USERI: 0.1420724696444075</t>
+  </si>
+  <si>
+    <t>USCMH: 0.5344304734558954</t>
+  </si>
+  <si>
+    <t>USCMI: 0.13457392613761804</t>
+  </si>
+  <si>
+    <t>USFSM: 0.13441962962818096</t>
+  </si>
+  <si>
+    <t>USPGA: 0.243092351510099</t>
+  </si>
+  <si>
+    <t>USRKD: 0.11685670814666474</t>
+  </si>
+  <si>
+    <t>USSMF: 0.5406967531922378</t>
+  </si>
+  <si>
+    <t>USPGD: 0.47219618740899183</t>
+  </si>
+  <si>
+    <t>USAIN: 0.33333335046157175</t>
+  </si>
+  <si>
+    <t>USPHL: 1.66334146947711</t>
+  </si>
+  <si>
+    <t>USESC: 0.11395047102497087</t>
+  </si>
+  <si>
+    <t>USPHF: 0.18400470243575107</t>
+  </si>
+  <si>
+    <t>USCNY: 0.11799584890798055</t>
+  </si>
+  <si>
+    <t>USHYA: 0.1801196425932573</t>
+  </si>
+  <si>
+    <t>USMBL: 0.11207319144707012</t>
+  </si>
+  <si>
+    <t>USCOD: 0.13803067068748978</t>
+  </si>
+  <si>
+    <t>USCNM: 0.11747967867342697</t>
+  </si>
+  <si>
+    <t>USTPA: 1.0166039788228993</t>
+  </si>
+  <si>
+    <t>USSMX: 0.1292508922605358</t>
+  </si>
+  <si>
+    <t>USPGV: 0.1143858163966263</t>
+  </si>
+  <si>
+    <t>USBLI: 0.21686303042922664</t>
+  </si>
+  <si>
+    <t>USBLV: 0.11963503344609736</t>
+  </si>
+  <si>
+    <t>USSNA: 0.3731516510165577</t>
+  </si>
+  <si>
+    <t>USCLE: 1.1159370626703051</t>
+  </si>
+  <si>
+    <t>USGTF: 0.21115880162366935</t>
+  </si>
+  <si>
+    <t>USGSO: 0.31216675169089025</t>
+  </si>
+  <si>
+    <t>USGSP: 0.38635245627735804</t>
+  </si>
+  <si>
+    <t>USPDX: 1.1282488719993153</t>
+  </si>
+  <si>
+    <t>USBIL: 0.7060864645936039</t>
+  </si>
+  <si>
+    <t>USPDT: 0.11490140019621738</t>
+  </si>
+  <si>
+    <t>USRIC: 0.3540378302878898</t>
+  </si>
+  <si>
+    <t>USBIS: 0.17008255427126506</t>
+  </si>
+  <si>
+    <t>USAGS: 0.14279584504033455</t>
+  </si>
+  <si>
+    <t>USSLK: 0.11685670814666474</t>
+  </si>
+  <si>
+    <t>USSLN: 0.11326842251994829</t>
+  </si>
+  <si>
+    <t>USGUC: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USFSD: 0.2387973167302441</t>
+  </si>
+  <si>
+    <t>USAIA: 0.18466895873265377</t>
+  </si>
+  <si>
+    <t>USCLL: 0.1320854662259765</t>
+  </si>
+  <si>
+    <t>USHVR: 0.14493277501959298</t>
+  </si>
+  <si>
+    <t>USCLM: 0.3333333453231002</t>
+  </si>
+  <si>
+    <t>USGTR: 0.11656582132447248</t>
+  </si>
+  <si>
+    <t>USHVN: 0.1133832072256779</t>
+  </si>
+  <si>
+    <t>USRIW: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USBJI: 0.1164176909554713</t>
+  </si>
+  <si>
+    <t>USSLC: 2.1595018689576655</t>
+  </si>
+  <si>
+    <t>USCLT: 2.240077124617524</t>
+  </si>
+  <si>
+    <t>USAHN: 0.11274440939959614</t>
+  </si>
+  <si>
+    <t>USAHO: 0.26470589063117</t>
+  </si>
+  <si>
+    <t>USAEX: 0.14865128755044896</t>
+  </si>
+  <si>
+    <t>USCIU: 0.11395047102497087</t>
+  </si>
+  <si>
+    <t>USBHB: 0.11685670814666474</t>
+  </si>
+  <si>
+    <t>USGRB: 0.16365410113882417</t>
+  </si>
+  <si>
+    <t>USOAJ: 0.14279584165322737</t>
+  </si>
+  <si>
+    <t>USOAK: 0.5764614454313425</t>
+  </si>
+  <si>
+    <t>USCID: 0.2711109892551946</t>
+  </si>
+  <si>
+    <t>USSHV: 0.18268111227333567</t>
+  </si>
+  <si>
+    <t>USHSV: 0.24028420605050524</t>
+  </si>
+  <si>
+    <t>USBGR: 0.1878418431388836</t>
+  </si>
+  <si>
+    <t>USBGM: 0.14203116578356048</t>
+  </si>
+  <si>
+    <t>USRHI: 0.1791041408764572</t>
+  </si>
+  <si>
+    <t>USTLH: 0.19693866359093298</t>
+  </si>
+  <si>
+    <t>USWRL: 0.1880956134115367</t>
+  </si>
+  <si>
+    <t>USCKB: 0.18999271095429845</t>
+  </si>
+  <si>
+    <t>USSJT: 0.1178538083037085</t>
+  </si>
+  <si>
+    <t>USVPS: 0.17488130499576196</t>
+  </si>
+  <si>
+    <t>USGRI: 0.13184881413052787</t>
+  </si>
+  <si>
+    <t>USGRK: 0.14865128466700706</t>
+  </si>
+  <si>
+    <t>USDLH: 0.1471328146162002</t>
+  </si>
+  <si>
+    <t>USSJC: 0.4683817688490889</t>
+  </si>
+  <si>
+    <t>USBHM: 0.3670521746943969</t>
+  </si>
+  <si>
+    <t>USHTS: 0.16778747839651403</t>
+  </si>
+  <si>
+    <t>USGRR: 0.3831286412864203</t>
+  </si>
+  <si>
+    <t>USACT: 0.1178538083037085</t>
+  </si>
+  <si>
+    <t>USSGF: 0.24074281323268323</t>
+  </si>
+  <si>
+    <t>USACV: 0.1848998206388618</t>
+  </si>
+  <si>
+    <t>USACR: 0.33333335046157175</t>
+  </si>
+  <si>
+    <t>USCHA: 0.22853030366425775</t>
+  </si>
+  <si>
+    <t>USITH: 0.1384873608240571</t>
+  </si>
+  <si>
+    <t>USELD: 0.18487661254721413</t>
+  </si>
+  <si>
+    <t>USACY: 0.225968862072699</t>
+  </si>
+  <si>
+    <t>USPAH: 0.11672011783390955</t>
+  </si>
+  <si>
+    <t>USRDU: 0.6012115598748111</t>
+  </si>
+  <si>
+    <t>USACE: 0.26470589924728566</t>
+  </si>
+  <si>
+    <t>USISN: 0.13645251273498055</t>
+  </si>
+  <si>
+    <t>USCGI: 0.11738930483426727</t>
+  </si>
+  <si>
+    <t>USISP: 0.24701829123382804</t>
+  </si>
+  <si>
+    <t>USDIK: 0.13645251273498055</t>
+  </si>
+  <si>
+    <t>USFMN: 0.2411000409580362</t>
+  </si>
+  <si>
+    <t>USACK: 0.36651712694534955</t>
+  </si>
+  <si>
+    <t>USEKO: 0.11799584890798055</t>
+  </si>
+  <si>
+    <t>USPBG: 0.18243556302030758</t>
+  </si>
+  <si>
+    <t>USADQ: 0.26676745714467065</t>
+  </si>
+  <si>
+    <t>USCHS: 0.37184526330017553</t>
+  </si>
+  <si>
+    <t>USSHD: 0.17645766961251091</t>
+  </si>
+  <si>
+    <t>USRFD: 0.169568237008403</t>
+  </si>
+  <si>
+    <t>USFOE: 0.11672011783390955</t>
+  </si>
+  <si>
+    <t>USCIC: 0.11539378002343512</t>
+  </si>
+  <si>
+    <t>USSHR: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USPBI: 0.37189094948659207</t>
+  </si>
+  <si>
+    <t>USHRL: 0.20825785977897832</t>
+  </si>
+  <si>
+    <t>USADE: 0.30443811727414394</t>
+  </si>
+  <si>
+    <t>USBFF: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USHRO: 0.12788347750074713</t>
+  </si>
+  <si>
+    <t>USBFI: 0.33333335046157175</t>
+  </si>
+  <si>
+    <t>USBFD: 0.17652121961864956</t>
+  </si>
+  <si>
+    <t>USSGU: 0.13803067068748978</t>
+  </si>
+  <si>
+    <t>USCHO: 0.1872063605633505</t>
+  </si>
+  <si>
+    <t>USGPT: 0.16303710394707527</t>
+  </si>
+  <si>
+    <t>USFNT: 0.21287303218863282</t>
+  </si>
+  <si>
+    <t>USELM: 0.18126384679091195</t>
+  </si>
+  <si>
+    <t>USBFL: 0.1782685959291969</t>
+  </si>
+  <si>
+    <t>USADK: 0.13140942281461604</t>
+  </si>
+  <si>
+    <t>USELP: 0.29279315968932385</t>
+  </si>
+  <si>
+    <t>USRST: 0.13313780878938083</t>
+  </si>
+  <si>
+    <t>USCVG: 0.7543686435907863</t>
+  </si>
+  <si>
+    <t>USIAG: 0.18394203534887282</t>
+  </si>
+  <si>
+    <t>USIAH: 2.0330935769751566</t>
+  </si>
+  <si>
+    <t>USBTM: 0.11799584890798055</t>
+  </si>
+  <si>
+    <t>USRSW: 0.5520403940258772</t>
+  </si>
+  <si>
+    <t>USSUX: 0.11672011783390955</t>
+  </si>
+  <si>
+    <t>USEYW: 0.20065814977751228</t>
+  </si>
+  <si>
+    <t>USOMA: 0.39405051068238006</t>
+  </si>
+  <si>
+    <t>USTWF: 0.11799584890798055</t>
+  </si>
+  <si>
+    <t>USMIA: 0.9408277716554283</t>
+  </si>
+  <si>
+    <t>USIAD: 1.6797125494406924</t>
+  </si>
+  <si>
+    <t>USLGA: 1.0635773803341664</t>
+  </si>
+  <si>
+    <t>USLGB: 0.2747853276188458</t>
+  </si>
+  <si>
+    <t>USBUF: 0.3703789995602884</t>
+  </si>
+  <si>
+    <t>USASE: 0.13529070821322567</t>
+  </si>
+  <si>
+    <t>USONT: 0.29690270800389185</t>
+  </si>
+  <si>
+    <t>USASM: 0.20655334104595038</t>
+  </si>
+  <si>
+    <t>USART: 0.13010332505958744</t>
+  </si>
+  <si>
+    <t>USBTV: 0.2415815782927909</t>
+  </si>
+  <si>
+    <t>USCWA: 0.1470882798143517</t>
+  </si>
+  <si>
+    <t>USTXK: 0.1178538083037085</t>
+  </si>
+  <si>
+    <t>USTUS: 0.34630775785373125</t>
+  </si>
+  <si>
+    <t>USMGM: 0.14880544602480728</t>
+  </si>
+  <si>
+    <t>USBRD: 0.17910414263138835</t>
+  </si>
+  <si>
+    <t>USTUP: 0.24710705081435397</t>
+  </si>
+  <si>
+    <t>USBRL: 0.134109431342501</t>
+  </si>
+  <si>
+    <t>USMGW: 0.15902911736360903</t>
+  </si>
+  <si>
+    <t>USJAN: 0.22750017752070625</t>
+  </si>
+  <si>
+    <t>USAPF: 0.1129133223560549</t>
+  </si>
+  <si>
+    <t>USEWR: 1.1631697540840145</t>
+  </si>
+  <si>
+    <t>USAOO: 0.17645767087115677</t>
+  </si>
+  <si>
+    <t>USTUL: 0.3757732214698607</t>
+  </si>
+  <si>
+    <t>USJAC: 0.13803067068748978</t>
+  </si>
+  <si>
+    <t>USOKC: 0.43338548189963355</t>
+  </si>
+  <si>
+    <t>USLEB: 0.13735931111629987</t>
+  </si>
+  <si>
+    <t>USSTS: 0.15801243514499905</t>
+  </si>
+  <si>
+    <t>USPNS: 0.2523803350182183</t>
+  </si>
+  <si>
+    <t>USMHK: 0.13457392613761804</t>
+  </si>
+  <si>
+    <t>USJBR: 0.11738930483426727</t>
+  </si>
+  <si>
+    <t>USLFT: 0.14865128466700706</t>
+  </si>
+  <si>
+    <t>USMHT: 0.29037957172340345</t>
+  </si>
+  <si>
+    <t>USSTC: 0.11672011783390955</t>
+  </si>
+  <si>
+    <t>USTVF: 0.14388416356553135</t>
+  </si>
+  <si>
+    <t>USLEX: 0.30117395326936264</t>
+  </si>
+  <si>
+    <t>USBRO: 0.1320854662259765</t>
+  </si>
+  <si>
+    <t>USAPN: 0.13036816198044215</t>
+  </si>
+  <si>
+    <t>USJAX: 0.4320116556638127</t>
+  </si>
+  <si>
+    <t>USTVC: 0.1470882798143517</t>
+  </si>
+  <si>
+    <t>USSTL: 1.3911443867413813</t>
+  </si>
+  <si>
+    <t>USOLF: 0.14493277501959298</t>
+  </si>
+  <si>
+    <t>USLCK: 0.1372100461156784</t>
+  </si>
+  <si>
+    <t>USMEM: 0.6681167991222325</t>
+  </si>
+  <si>
+    <t>USMEI: 0.11656582132447248</t>
+  </si>
+  <si>
+    <t>USLCH: 0.1320854633425346</t>
+  </si>
+  <si>
+    <t>USROW: 0.1178538083037085</t>
+  </si>
+  <si>
+    <t>USLCR: 0.3333333453231002</t>
+  </si>
+  <si>
+    <t>USANI: 0.13140942281461604</t>
+  </si>
+  <si>
+    <t>USANC: 0.6281884562923206</t>
+  </si>
+  <si>
+    <t>USROA: 0.2383668967180062</t>
+  </si>
+  <si>
+    <t>USDSM: 0.3596058869489266</t>
+  </si>
+  <si>
+    <t>USMDW: 1.1383294792951817</t>
+  </si>
+  <si>
+    <t>USAMM: 0.34200444156385</t>
+  </si>
+  <si>
+    <t>USBOS: 1.6856708146664732</t>
+  </si>
+  <si>
+    <t>USROC: 0.33085435404716595</t>
+  </si>
+  <si>
+    <t>USPKB: 0.11473879139375875</t>
+  </si>
+  <si>
+    <t>USSRQ: 0.1831475077512007</t>
+  </si>
+  <si>
+    <t>USPLN: 0.11395047102497087</t>
+  </si>
+  <si>
+    <t>USTTN: 0.26848364853168827</t>
+  </si>
+  <si>
+    <t>USEWB: 0.2030761514482323</t>
+  </si>
+  <si>
+    <t>USEWN: 0.13095163772109877</t>
+  </si>
+  <si>
+    <t>USBQK: 0.11656582132447248</t>
+  </si>
+  <si>
+    <t>USCSG: 0.11656582132447248</t>
+  </si>
+  <si>
+    <t>USMFR: 0.21305370310140093</t>
+  </si>
+  <si>
+    <t>USDUJ: 0.17652121961864956</t>
+  </si>
+  <si>
+    <t>USEVV: 0.1650902257049674</t>
+  </si>
+  <si>
+    <t>USCRP: 0.1650833072851332</t>
+  </si>
+  <si>
+    <t>USMFE: 0.14608046916935397</t>
+  </si>
+  <si>
+    <t>USBPT: 0.1178538083037085</t>
+  </si>
+  <si>
+    <t>USDTW: 2.252004608316725</t>
+  </si>
+  <si>
+    <t>USCRW: 0.23644100970661786</t>
+  </si>
+  <si>
+    <t>USANU: 0.15063046547079983</t>
+  </si>
+  <si>
+    <t>USMCI: 0.7771504618826849</t>
+  </si>
+  <si>
+    <t>USBNA: 0.8374897605448891</t>
+  </si>
+  <si>
+    <t>USMCK: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USPIH: 0.11799584890798055</t>
+  </si>
+  <si>
+    <t>USMCE: 0.11525588643371643</t>
+  </si>
+  <si>
+    <t>USOGS: 0.11838937379370848</t>
+  </si>
+  <si>
+    <t>USPIT: 0.5569955242484277</t>
+  </si>
+  <si>
+    <t>USSOW: 0.16960912031245345</t>
+  </si>
+  <si>
+    <t>USALG: 0.30443811727414394</t>
+  </si>
+  <si>
+    <t>USLAR: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USALB: 0.49914014582923016</t>
+  </si>
+  <si>
+    <t>USMCN: 0.12864590333599793</t>
+  </si>
+  <si>
+    <t>USLAM: 0.11747967867342697</t>
+  </si>
+  <si>
+    <t>USMCO: 1.2770368006664918</t>
+  </si>
+  <si>
+    <t>USLAN: 0.195133351699026</t>
+  </si>
+  <si>
+    <t>USPIR: 0.3056702194471337</t>
+  </si>
+  <si>
+    <t>USAKN: 0.13140942281461604</t>
+  </si>
+  <si>
+    <t>USMBS: 0.1636541086703251</t>
+  </si>
+  <si>
+    <t>USBMI: 0.23325784779991535</t>
+  </si>
+  <si>
+    <t>USPHX: 1.3924691692722189</t>
+  </si>
+  <si>
+    <t>USAKK: 0.1933686100006347</t>
+  </si>
+  <si>
+    <t>USPIE: 0.7783219896528759</t>
+  </si>
+  <si>
+    <t>USCOS: 0.27822119021370617</t>
+  </si>
+  <si>
+    <t>USPIA: 0.25147593950366026</t>
+  </si>
+  <si>
+    <t>USPIB: 0.11656582132447248</t>
+  </si>
+  <si>
+    <t>USCOU: 0.13457392613761804</t>
+  </si>
+  <si>
+    <t>USRNO: 0.3111603778397727</t>
+  </si>
+  <si>
+    <t>USAMA: 0.19323652232018865</t>
+  </si>
+  <si>
+    <t>USLBE: 0.14044888201143169</t>
+  </si>
+  <si>
+    <t>USFWA: 0.2532727699181342</t>
+  </si>
+  <si>
+    <t>USLBF: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USBOI: 0.3669427538712764</t>
+  </si>
+  <si>
+    <t>USMDT: 0.27588459359414724</t>
+  </si>
+  <si>
+    <t>USSPS: 0.1178538083037085</t>
+  </si>
+  <si>
+    <t>USLBL: 0.18466895733593808</t>
+  </si>
+  <si>
+    <t>USEUG: 0.22696829198849972</t>
+  </si>
+  <si>
+    <t>USLAW: 0.1178538083037085</t>
+  </si>
+  <si>
+    <t>USLAX: 1.7435298781390198</t>
+  </si>
+  <si>
+    <t>USALO: 0.11672011783390955</t>
+  </si>
+  <si>
+    <t>USCPR: 0.15202567651430915</t>
+  </si>
+  <si>
+    <t>USLAS: 2.2192080668242156</t>
+  </si>
+  <si>
+    <t>USDRO: 0.15124107417212942</t>
+  </si>
+  <si>
+    <t>USTRI: 0.16816168842745244</t>
+  </si>
+  <si>
+    <t>USLBB: 0.24288409636308078</t>
+  </si>
+  <si>
+    <t>USSPI: 0.1725721493049936</t>
+  </si>
+  <si>
+    <t>USALW: 0.11547695993372285</t>
+  </si>
+  <si>
+    <t>USALS: 0.17629150023247817</t>
+  </si>
+  <si>
+    <t>USHGR: 0.1343325182537034</t>
+  </si>
+  <si>
+    <t>USMQT: 0.13067058885888042</t>
+  </si>
+  <si>
+    <t>USGEO: 0.12509096037036616</t>
+  </si>
+  <si>
+    <t>USAZO: 0.1636541086703251</t>
+  </si>
+  <si>
+    <t>USEAT: 0.11547695993372285</t>
+  </si>
+  <si>
+    <t>USEAU: 0.11672011783390955</t>
+  </si>
+  <si>
+    <t>USPWM: 0.2626481670619403</t>
+  </si>
+  <si>
+    <t>USGEG: 0.25739839249131596</t>
+  </si>
+  <si>
+    <t>USMRY: 0.19041012673373425</t>
+  </si>
+  <si>
+    <t>USHHN: 0.47058825894619993</t>
+  </si>
+  <si>
+    <t>USOWB: 0.1370243405437324</t>
+  </si>
+  <si>
+    <t>USGFK: 0.2507666489458934</t>
+  </si>
+  <si>
+    <t>USJLN: 0.1178538083037085</t>
+  </si>
+  <si>
+    <t>USVCT: 0.1142316550388261</t>
+  </si>
+  <si>
+    <t>USPUW: 0.1508858665955996</t>
+  </si>
+  <si>
+    <t>USMOT: 0.15044751856179991</t>
+  </si>
+  <si>
+    <t>USGCN: 0.15672154868568977</t>
+  </si>
+  <si>
+    <t>USLMT: 0.13029518021965247</t>
+  </si>
+  <si>
+    <t>USGCK: 0.1178538083037085</t>
+  </si>
+  <si>
+    <t>USPVC: 0.11685670814666474</t>
+  </si>
+  <si>
+    <t>USBZN: 0.20064044523741287</t>
+  </si>
+  <si>
+    <t>USFAR: 0.25679316563822463</t>
+  </si>
+  <si>
+    <t>USFAT: 0.25663814407536345</t>
+  </si>
+  <si>
+    <t>USMOD: 0.11539378002343512</t>
+  </si>
+  <si>
+    <t>USMOB: 0.17975721889754293</t>
+  </si>
+  <si>
+    <t>USGCC: 0.18004000721179944</t>
+  </si>
+  <si>
+    <t>USPVU: 0.12917047304757642</t>
+  </si>
+  <si>
+    <t>USLNS: 0.11469748480760607</t>
+  </si>
+  <si>
+    <t>USGDV: 0.14493277501959298</t>
+  </si>
+  <si>
+    <t>USOTH: 0.13029518021965247</t>
+  </si>
+  <si>
+    <t>USFAY: 0.1574933291861391</t>
+  </si>
+  <si>
+    <t>USPVD: 0.35271116612910125</t>
+  </si>
+  <si>
+    <t>USLNK: 0.15317263056889008</t>
+  </si>
+  <si>
+    <t>USCZL: 0.20655334104595038</t>
+  </si>
+  <si>
+    <t>USMMU: 0.1543965758163814</t>
+  </si>
+  <si>
+    <t>USAVP: 0.1946404695151222</t>
+  </si>
+  <si>
+    <t>USAVL: 0.22937266034163473</t>
+  </si>
+  <si>
+    <t>USAUS: 0.6688726805985451</t>
+  </si>
+  <si>
+    <t>USPSC: 0.21421550762315578</t>
+  </si>
+  <si>
+    <t>USPSM: 0.11963503344609736</t>
+  </si>
+  <si>
+    <t>USSYR: 0.3140006704696572</t>
+  </si>
+  <si>
+    <t>USPSP: 0.3246230005604067</t>
+  </si>
+  <si>
+    <t>USMMH: 0.11525588643371643</t>
+  </si>
+  <si>
+    <t>USHDN: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USPUB: 0.12003482177950925</t>
+  </si>
+  <si>
+    <t>USJHW: 0.1765212182602861</t>
+  </si>
+  <si>
+    <t>USORF: 0.3683906332873853</t>
+  </si>
+  <si>
+    <t>USORH: 0.12425727344153392</t>
+  </si>
+  <si>
+    <t>USORD: 3.5351106277408744</t>
+  </si>
+  <si>
+    <t>USTYS: 0.36044315800925997</t>
+  </si>
+  <si>
+    <t>USMKL: 0.12735946438039497</t>
+  </si>
+  <si>
+    <t>USRUT: 0.11685670814666474</t>
+  </si>
+  <si>
+    <t>USICT: 0.27157924018572854</t>
+  </si>
+  <si>
+    <t>USLIT: 0.3513390521983144</t>
+  </si>
+  <si>
+    <t>USATK: 0.3333333453231002</t>
+  </si>
+  <si>
+    <t>USATL: 3.597149773314023</t>
+  </si>
+  <si>
+    <t>USSWF: 0.16916596668907125</t>
+  </si>
+  <si>
+    <t>USBUR: 0.3105953906726471</t>
+  </si>
+  <si>
+    <t>USTYR: 0.1320854633425346</t>
+  </si>
+  <si>
+    <t>USMKE: 0.4967879276729521</t>
+  </si>
+  <si>
+    <t>USPQI: 0.11685670814666474</t>
+  </si>
+  <si>
+    <t>USMKG: 0.11672011783390955</t>
+  </si>
+  <si>
+    <t>USAUG: 0.11685670814666474</t>
+  </si>
+  <si>
+    <t>USBWI: 0.9953934520824003</t>
+  </si>
+  <si>
+    <t>USJFK: 1.0437975440838207</t>
+  </si>
+  <si>
+    <t>USCYS: 0.25170175260439054</t>
+  </si>
+  <si>
+    <t>USMLU: 0.14865128466700706</t>
+  </si>
+  <si>
+    <t>USMLB: 0.13095163772109877</t>
+  </si>
+  <si>
+    <t>USATW: 0.1972841426751087</t>
+  </si>
+  <si>
+    <t>USPRC: 0.11525588643371643</t>
+  </si>
+  <si>
+    <t>USMLI: 0.25274778775521495</t>
+  </si>
+  <si>
+    <t>USIDA: 0.15202567651430915</t>
+  </si>
+  <si>
+    <t>USATY: 0.18774074412995648</t>
   </si>
 </sst>
 </file>
@@ -12970,7 +14213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A476FC7-1254-452D-ABB2-B501437D4807}">
   <dimension ref="A1:A415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -15057,4 +16300,2102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80EED61-3ED2-4012-A29C-DB41F9C01143}">
+  <dimension ref="A1:A417"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ComplexNetwork1/src/result/US.xlsx
+++ b/ComplexNetwork1/src/result/US.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="connected component" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="838">
   <si>
     <t>total vertices is: 414</t>
   </si>
@@ -2536,6 +2536,9 @@
   </si>
   <si>
     <t>USATY</t>
+  </si>
+  <si>
+    <t>the average degree</t>
   </si>
 </sst>
 </file>
@@ -2881,50 +2884,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>837</v>
+      </c>
+      <c r="B11">
+        <v>12.135265700483</v>
       </c>
     </row>
   </sheetData>
@@ -12971,7 +12983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A476FC7-1254-452D-ABB2-B501437D4807}">
   <dimension ref="A1:B417"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
